--- a/u4_d02-cnn/convolution_example.xlsx
+++ b/u4_d02-cnn/convolution_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Class_Slides\u4_d02-cnn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D9279-272D-40EB-8AF9-072BFB7EA8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56A2EF-B0B0-4D72-BC03-C0D5360D13D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1605C1DB-A579-4F49-9FC4-8E74F27F17AF}"/>
   </bookViews>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE93078-68E3-40CB-8AE9-84059F4C26DD}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="S1" sqref="S1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,9 +656,11 @@
     <col min="7" max="7" width="3.54296875" customWidth="1"/>
     <col min="9" max="11" width="3.6328125" customWidth="1"/>
     <col min="13" max="17" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="4.1796875" customWidth="1"/>
+    <col min="20" max="20" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15">
         <v>0</v>
       </c>
@@ -709,8 +711,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="1">
+        <f>MAX(M1:N2)</f>
+        <v>2</v>
+      </c>
+      <c r="T1" s="1">
+        <f>MAX(O1:P2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -761,8 +771,16 @@
         <f t="shared" ref="Q2:Q5" si="5">E2*$I$1+F2*$J$1+G2*$K$1+E3*$I$2+F3*$J$2+G3*$K$2+E4*$I$3+F4*$J$3+G4*$K$3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" s="1">
+        <f>MAX(M3:N4)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <f>MAX(O3:P4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>0</v>
       </c>
@@ -814,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -857,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -900,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -923,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -946,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -965,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A5413-5A1F-400F-B9F1-2A04BC0E6E65}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,9 +996,10 @@
     <col min="7" max="7" width="3.54296875" customWidth="1"/>
     <col min="9" max="11" width="3.6328125" customWidth="1"/>
     <col min="13" max="17" width="3.81640625" customWidth="1"/>
+    <col min="19" max="20" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15">
         <v>0</v>
       </c>
@@ -1031,8 +1050,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="1">
+        <f>MAX(M1:N2)</f>
+        <v>1</v>
+      </c>
+      <c r="T1" s="1">
+        <f>MAX(O1:P2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -1083,8 +1110,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" s="1">
+        <f>MAX(M3:N4)</f>
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>MAX(O3:P4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>0</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1222,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1268,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>0</v>
       </c>
